--- a/Test/Workbooks/EN/Folders.xlsx
+++ b/Test/Workbooks/EN/Folders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Test\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C91342-44BA-4EE7-AA12-0DD8D82CC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA6BD1E-77DD-492B-A3B2-7092561B22CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="465" windowWidth="29400" windowHeight="14070" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11385" tabRatio="881" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -3821,7 +3821,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
